--- a/reports/Lab6PulseTest.xlsx
+++ b/reports/Lab6PulseTest.xlsx
@@ -5,16 +5,15 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graevsky/Desktop/opd/ITMO-opd-lr/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graevsky/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB005DD-C651-BA42-B009-6A5D711ECFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D2F01-677A-B340-A461-7473ABB3D5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="25380" windowHeight="17500" activeTab="1" xr2:uid="{D929799F-C5F3-DC44-9888-49FBC12DBFB8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D929799F-C5F3-DC44-9888-49FBC12DBFB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
   <si>
     <t>Минуты</t>
   </si>
@@ -52,12 +51,33 @@
   <si>
     <t>тест</t>
   </si>
+  <si>
+    <t>Пульс и точность измерений имеют обратную связь: при повышенном пульсе уровень точности снижается, а при более низком пульсе точность повышается.</t>
+  </si>
+  <si>
+    <t>Более высокая активность сердца, выраженная повышенным пульсом, может приводить к снижению точности измерений из-за движения датчика или изменений в кровообращении.</t>
+  </si>
+  <si>
+    <t>Исходя из таблиц слева, можно сделать следующие выводы о связи между пульсом и точностью измерений:</t>
+  </si>
+  <si>
+    <t>Графики</t>
+  </si>
+  <si>
+    <t>Схемы</t>
+  </si>
+  <si>
+    <t>Выводы</t>
+  </si>
+  <si>
+    <t>Замеры пульса во время тестов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,16 +92,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -104,15 +158,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -169,7 +371,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> пульса во время теста</a:t>
+              <a:t> пульса во время теста на память</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -214,6 +416,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Пульс</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -226,7 +431,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$17</c:f>
+              <c:f>Лист1!$D$12:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -280,61 +485,61 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$17</c:f>
+              <c:f>Лист1!$E$57:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B239-1642-BAAC-4DDC2035F1D2}"/>
+              <c16:uniqueId val="{00000000-DB67-D844-AC27-B802FA2DC5D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -358,6 +563,1240 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Точность</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$12:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$57:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB67-D844-AC27-B802FA2DC5D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="230"/>
+        <c:axId val="873288048"/>
+        <c:axId val="873343520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1948584800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791779008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="791779008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948584800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="873343520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873288048"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="873288048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="873343520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Замеры</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> пульса во время теста на дедукцию</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Пульс</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$39:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$39:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AED1-BC4A-9E97-B61B1541744F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="109"/>
+        <c:overlap val="-8"/>
+        <c:axId val="1948584800"/>
+        <c:axId val="791779008"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Точность</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$39:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$39:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AED1-BC4A-9E97-B61B1541744F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="230"/>
+        <c:axId val="873288048"/>
+        <c:axId val="873343520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1948584800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791779008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="791779008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948584800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="873343520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873288048"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="873288048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="873343520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Замеры</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> пульса во время теста</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Р</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>ДО</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Пульс</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$12:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B239-1642-BAAC-4DDC2035F1D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="230"/>
+        <c:axId val="1948584800"/>
+        <c:axId val="791779008"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Точность</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -372,7 +1811,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$17</c:f>
+              <c:f>Лист1!$D$12:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -426,7 +1865,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$3:$D$17</c:f>
+              <c:f>Лист1!$F$12:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -481,6 +1920,1529 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B239-1642-BAAC-4DDC2035F1D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="230"/>
+        <c:axId val="443606976"/>
+        <c:axId val="443604528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1948584800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791779008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="791779008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948584800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="443604528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443606976"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="443606976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443604528"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Замеры</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> пульса во время теста "ПДО</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>"</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Пульс</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$75:$E$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD46-4143-A9A4-ED3AAE049145}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="109"/>
+        <c:overlap val="-8"/>
+        <c:axId val="1948584800"/>
+        <c:axId val="791779008"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Точность</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$75:$F$89</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD46-4143-A9A4-ED3AAE049145}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="230"/>
+        <c:axId val="873288048"/>
+        <c:axId val="873343520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1948584800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791779008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="791779008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948584800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="873343520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873288048"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="873288048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="873343520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Замеры</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> пульса во время</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>на внимание   </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Пульс</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$93:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DFD-0043-A6A1-8C81FCB3888B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="109"/>
+        <c:overlap val="-8"/>
+        <c:axId val="1948584800"/>
+        <c:axId val="791779008"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Точность</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$93:$F$107</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DFD-0043-A6A1-8C81FCB3888B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="230"/>
+        <c:axId val="873288048"/>
+        <c:axId val="873343520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1948584800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791779008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="791779008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948584800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="873343520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873288048"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="873288048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="873343520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Замеры</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> пульса во время теста на сравнения</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Пульс</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$111:$E$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEA4-4940-8DFB-DCB81BDD0BAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="109"/>
+        <c:overlap val="-8"/>
+        <c:axId val="1948584800"/>
+        <c:axId val="791779008"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Точность</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$111:$F$125</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEA4-4940-8DFB-DCB81BDD0BAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,6 +3740,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1281,20 +4443,2611 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>821267</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16935</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCCE51D-A4D3-B64F-8629-0F10EE3410E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF01986-2415-744B-A8A6-1842BAC31A34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>440267</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1305,7 +7058,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1313,7 +7068,121 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>198915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5803D3AA-DA5A-C34B-9EBB-B88C7864BFE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627C1254-67FB-4046-A451-16E467FEFFE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Диаграмма 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C6AADB-AEE0-3E47-901C-303EC5593CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1618,228 +7487,1983 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFE5689-F646-414C-84D8-3549E357FDB1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1769DC45-DE1A-324D-BE4E-8206A19F2382}">
+  <dimension ref="C5:S127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1769DC45-DE1A-324D-BE4E-8206A19F2382}">
-  <dimension ref="B2:E17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="19" max="19" width="91" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="3:19" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="C7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C11" s="10"/>
+      <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C12" s="10"/>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E12" s="1">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="21"/>
+    </row>
+    <row r="13" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C13" s="10"/>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="10"/>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="10"/>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="10"/>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>87</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="10"/>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>92</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="10"/>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="10"/>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="21"/>
+    </row>
+    <row r="20" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="21"/>
+    </row>
+    <row r="21" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="10"/>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="10"/>
+      <c r="D22" s="1">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>83</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="10"/>
+      <c r="D23" s="1">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>88</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="10"/>
+      <c r="D24" s="1">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1">
+        <v>81</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="10"/>
+      <c r="D25" s="1">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1">
+        <v>89</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="10"/>
+      <c r="D26" s="1">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1">
+        <v>80</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="22"/>
+    </row>
+    <row r="27" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="3:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="22"/>
+    </row>
+    <row r="29" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="22"/>
+    </row>
+    <row r="30" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="22"/>
+    </row>
+    <row r="31" spans="3:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="22"/>
+    </row>
+    <row r="32" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="22"/>
+    </row>
+    <row r="33" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="22"/>
+    </row>
+    <row r="34" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="16"/>
+    </row>
+    <row r="35" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="16"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="16"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="16"/>
+    </row>
+    <row r="38" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C38" s="10"/>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="16"/>
+    </row>
+    <row r="39" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C39" s="10"/>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>83</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="10"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="16"/>
+    </row>
+    <row r="40" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C40" s="10"/>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>81</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="10"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="16"/>
+    </row>
+    <row r="41" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C41" s="10"/>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>85</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="10"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="16"/>
+    </row>
+    <row r="42" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C42" s="10"/>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
+        <v>87</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="10"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="16"/>
+    </row>
+    <row r="43" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C43" s="10"/>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>81</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="10"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="16"/>
+    </row>
+    <row r="44" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C44" s="10"/>
+      <c r="D44" s="1">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1">
+        <v>111</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="10"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="16"/>
+    </row>
+    <row r="45" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C45" s="10"/>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>86</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="10"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="16"/>
+    </row>
+    <row r="46" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C46" s="10"/>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>97</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="10"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="16"/>
+    </row>
+    <row r="47" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C47" s="10"/>
+      <c r="D47" s="1">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>91</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="10"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="16"/>
+    </row>
+    <row r="48" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C48" s="10"/>
+      <c r="D48" s="1">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1">
+        <v>109</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="10"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="16"/>
+    </row>
+    <row r="49" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C49" s="10"/>
+      <c r="D49" s="1">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1">
+        <v>83</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="10"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="16"/>
+    </row>
+    <row r="50" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C50" s="10"/>
+      <c r="D50" s="1">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
+        <v>81</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="10"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="16"/>
+    </row>
+    <row r="51" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C51" s="10"/>
+      <c r="D51" s="1">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1">
+        <v>88</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="10"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="16"/>
+    </row>
+    <row r="52" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C52" s="10"/>
+      <c r="D52" s="1">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1">
+        <v>80</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="10"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="16"/>
+    </row>
+    <row r="53" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C53" s="10"/>
+      <c r="D53" s="1">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1">
+        <v>74</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="10"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="16"/>
+    </row>
+    <row r="54" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C54" s="10"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="10"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="16"/>
+    </row>
+    <row r="55" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C55" s="10"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="10"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="16"/>
+    </row>
+    <row r="56" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C56" s="10"/>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="10"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="16"/>
+    </row>
+    <row r="57" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C57" s="10"/>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>72</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="10"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="16"/>
+    </row>
+    <row r="58" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C58" s="10"/>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>84</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="10"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="16"/>
+    </row>
+    <row r="59" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C59" s="10"/>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>90</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="10"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="16"/>
+    </row>
+    <row r="60" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C60" s="10"/>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>83</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="10"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="16"/>
+    </row>
+    <row r="61" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C61" s="10"/>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>80</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="10"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="16"/>
+    </row>
+    <row r="62" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C62" s="10"/>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1">
+        <v>85</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="10"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="16"/>
+    </row>
+    <row r="63" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C63" s="10"/>
+      <c r="D63" s="1">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1">
+        <v>92</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="10"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="16"/>
+    </row>
+    <row r="64" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C64" s="10"/>
+      <c r="D64" s="1">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>100</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="10"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="16"/>
+    </row>
+    <row r="65" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C65" s="10"/>
+      <c r="D65" s="1">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1">
+        <v>103</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="10"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="16"/>
+    </row>
+    <row r="66" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C66" s="10"/>
+      <c r="D66" s="1">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1">
+        <v>105</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="10"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="16"/>
+    </row>
+    <row r="67" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C67" s="10"/>
+      <c r="D67" s="1">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1">
+        <v>88</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="10"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="16"/>
+    </row>
+    <row r="68" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C68" s="10"/>
+      <c r="D68" s="1">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1">
+        <v>77</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="10"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="16"/>
+    </row>
+    <row r="69" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C69" s="10"/>
+      <c r="D69" s="1">
+        <v>13</v>
+      </c>
+      <c r="E69" s="1">
+        <v>72</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="10"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="16"/>
+    </row>
+    <row r="70" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C70" s="10"/>
+      <c r="D70" s="1">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1">
+        <v>88</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="10"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="16"/>
+    </row>
+    <row r="71" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C71" s="10"/>
+      <c r="D71" s="1">
+        <v>15</v>
+      </c>
+      <c r="E71" s="1">
+        <v>88</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="10"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="16"/>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C72" s="10"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="10"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="16"/>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C73" s="10"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="10"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="16"/>
+    </row>
+    <row r="74" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C74" s="10"/>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="10"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="16"/>
+    </row>
+    <row r="75" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C75" s="10"/>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>71</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="10"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="16"/>
+    </row>
+    <row r="76" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C76" s="10"/>
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>83</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="10"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="16"/>
+    </row>
+    <row r="77" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C77" s="10"/>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1">
+        <v>88</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="10"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="16"/>
+    </row>
+    <row r="78" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C78" s="10"/>
+      <c r="D78" s="1">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1">
+        <v>80</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="10"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="16"/>
+    </row>
+    <row r="79" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C79" s="10"/>
+      <c r="D79" s="1">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>84</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="10"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="16"/>
+    </row>
+    <row r="80" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C80" s="10"/>
+      <c r="D80" s="1">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1">
+        <v>105</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="10"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="16"/>
+    </row>
+    <row r="81" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C81" s="10"/>
+      <c r="D81" s="1">
+        <v>7</v>
+      </c>
+      <c r="E81" s="1">
+        <v>91</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="10"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="16"/>
+    </row>
+    <row r="82" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C82" s="10"/>
+      <c r="D82" s="1">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1">
+        <v>96</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="10"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="16"/>
+    </row>
+    <row r="83" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C83" s="10"/>
+      <c r="D83" s="1">
+        <v>9</v>
+      </c>
+      <c r="E83" s="1">
+        <v>108</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="10"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="16"/>
+    </row>
+    <row r="84" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C84" s="10"/>
+      <c r="D84" s="1">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1">
+        <v>112</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="10"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="16"/>
+    </row>
+    <row r="85" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C85" s="10"/>
+      <c r="D85" s="1">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1">
+        <v>77</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="10"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="16"/>
+    </row>
+    <row r="86" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C86" s="10"/>
+      <c r="D86" s="1">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1">
+        <v>77</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="10"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="16"/>
+    </row>
+    <row r="87" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C87" s="10"/>
+      <c r="D87" s="1">
+        <v>13</v>
+      </c>
+      <c r="E87" s="1">
+        <v>84</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="10"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="16"/>
+    </row>
+    <row r="88" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C88" s="10"/>
+      <c r="D88" s="1">
+        <v>14</v>
+      </c>
+      <c r="E88" s="1">
+        <v>83</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="10"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="16"/>
+    </row>
+    <row r="89" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C89" s="10"/>
+      <c r="D89" s="1">
+        <v>15</v>
+      </c>
+      <c r="E89" s="1">
+        <v>89</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="10"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="16"/>
+    </row>
+    <row r="90" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C90" s="10"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="10"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="16"/>
+    </row>
+    <row r="91" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C91" s="10"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="5"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="10"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="16"/>
+    </row>
+    <row r="92" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C92" s="10"/>
+      <c r="D92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="10"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="16"/>
+    </row>
+    <row r="93" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C93" s="10"/>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>73</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="10"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="16"/>
+    </row>
+    <row r="94" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C94" s="10"/>
+      <c r="D94" s="1">
+        <v>2</v>
+      </c>
+      <c r="E94" s="1">
+        <v>70</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="10"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="16"/>
+    </row>
+    <row r="95" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C95" s="10"/>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>77</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="10"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="16"/>
+    </row>
+    <row r="96" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C96" s="10"/>
+      <c r="D96" s="1">
+        <v>4</v>
+      </c>
+      <c r="E96" s="1">
+        <v>80</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="10"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="16"/>
+    </row>
+    <row r="97" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C97" s="10"/>
+      <c r="D97" s="1">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>71</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="10"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="16"/>
+    </row>
+    <row r="98" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C98" s="10"/>
+      <c r="D98" s="1">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1">
+        <v>107</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="10"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="16"/>
+    </row>
+    <row r="99" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C99" s="10"/>
+      <c r="D99" s="1">
+        <v>7</v>
+      </c>
+      <c r="E99" s="1">
+        <v>102</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="10"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="16"/>
+    </row>
+    <row r="100" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C100" s="10"/>
+      <c r="D100" s="1">
+        <v>8</v>
+      </c>
+      <c r="E100" s="1">
+        <v>100</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="10"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="16"/>
+    </row>
+    <row r="101" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C101" s="10"/>
+      <c r="D101" s="1">
+        <v>9</v>
+      </c>
+      <c r="E101" s="1">
+        <v>111</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="10"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="16"/>
+    </row>
+    <row r="102" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C102" s="10"/>
+      <c r="D102" s="1">
+        <v>10</v>
+      </c>
+      <c r="E102" s="1">
+        <v>88</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="10"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="16"/>
+    </row>
+    <row r="103" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C103" s="10"/>
+      <c r="D103" s="1">
+        <v>11</v>
+      </c>
+      <c r="E103" s="1">
+        <v>74</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="10"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="16"/>
+    </row>
+    <row r="104" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C104" s="10"/>
+      <c r="D104" s="1">
+        <v>12</v>
+      </c>
+      <c r="E104" s="1">
+        <v>81</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="10"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="16"/>
+    </row>
+    <row r="105" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C105" s="10"/>
+      <c r="D105" s="1">
+        <v>13</v>
+      </c>
+      <c r="E105" s="1">
+        <v>79</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="10"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="16"/>
+    </row>
+    <row r="106" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C106" s="10"/>
+      <c r="D106" s="1">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1">
+        <v>84</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="10"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="16"/>
+    </row>
+    <row r="107" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C107" s="10"/>
+      <c r="D107" s="1">
+        <v>15</v>
+      </c>
+      <c r="E107" s="1">
+        <v>76</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="10"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="16"/>
+    </row>
+    <row r="108" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C108" s="10"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="10"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="16"/>
+    </row>
+    <row r="109" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C109" s="10"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="10"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="16"/>
+    </row>
+    <row r="110" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C110" s="10"/>
+      <c r="D110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="10"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="16"/>
+    </row>
+    <row r="111" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C111" s="10"/>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>86</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H111" s="11"/>
+      <c r="I111" s="10"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="16"/>
+    </row>
+    <row r="112" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C112" s="10"/>
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <v>87</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="10"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="16"/>
+    </row>
+    <row r="113" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C113" s="10"/>
+      <c r="D113" s="1">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1">
+        <v>78</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="10"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="16"/>
+    </row>
+    <row r="114" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C114" s="10"/>
+      <c r="D114" s="1">
+        <v>4</v>
+      </c>
+      <c r="E114" s="1">
+        <v>73</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="10"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="16"/>
+    </row>
+    <row r="115" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C115" s="10"/>
+      <c r="D115" s="1">
+        <v>5</v>
+      </c>
+      <c r="E115" s="1">
+        <v>78</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="10"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="16"/>
+    </row>
+    <row r="116" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C116" s="10"/>
+      <c r="D116" s="1">
+        <v>6</v>
+      </c>
+      <c r="E116" s="1">
+        <v>96</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="11"/>
+      <c r="I116" s="10"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="16"/>
+    </row>
+    <row r="117" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C117" s="10"/>
+      <c r="D117" s="1">
+        <v>7</v>
+      </c>
+      <c r="E117" s="1">
+        <v>95</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="10"/>
+      <c r="R117" s="11"/>
+      <c r="S117" s="16"/>
+    </row>
+    <row r="118" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C118" s="10"/>
+      <c r="D118" s="1">
+        <v>8</v>
+      </c>
+      <c r="E118" s="1">
+        <v>113</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="10"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="16"/>
+    </row>
+    <row r="119" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C119" s="10"/>
+      <c r="D119" s="1">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1">
+        <v>97</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="10"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="16"/>
+    </row>
+    <row r="120" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C120" s="10"/>
+      <c r="D120" s="1">
+        <v>10</v>
+      </c>
+      <c r="E120" s="1">
+        <v>84</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="10"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="16"/>
+    </row>
+    <row r="121" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C121" s="10"/>
+      <c r="D121" s="1">
+        <v>11</v>
+      </c>
+      <c r="E121" s="1">
         <v>75</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F121" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H121" s="11"/>
+      <c r="I121" s="10"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="16"/>
+    </row>
+    <row r="122" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C122" s="10"/>
+      <c r="D122" s="1">
+        <v>12</v>
+      </c>
+      <c r="E122" s="1">
+        <v>71</v>
+      </c>
+      <c r="F122" s="2">
         <v>0.89</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>87</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>92</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>103</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>89</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>83</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>88</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+      <c r="G122" s="3"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="10"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="16"/>
+    </row>
+    <row r="123" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C123" s="10"/>
+      <c r="D123" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
-        <v>81</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
+      <c r="E123" s="1">
+        <v>71</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="10"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="16"/>
+    </row>
+    <row r="124" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C124" s="10"/>
+      <c r="D124" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
-        <v>89</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
+      <c r="E124" s="1">
+        <v>77</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="10"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="16"/>
+    </row>
+    <row r="125" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="C125" s="10"/>
+      <c r="D125" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
-        <v>80</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="E125" s="1">
+        <v>74</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="10"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="16"/>
+    </row>
+    <row r="126" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C126" s="10"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="10"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="16"/>
+    </row>
+    <row r="127" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C127" s="12"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+      <c r="O127" s="13"/>
+      <c r="P127" s="13"/>
+      <c r="Q127" s="13"/>
+      <c r="R127" s="14"/>
+      <c r="S127" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="C5:S6"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="S18:S21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/reports/Lab6PulseTest.xlsx
+++ b/reports/Lab6PulseTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graevsky/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graevsky/Desktop/opd/ITMO-opd-lr/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D2F01-677A-B340-A461-7473ABB3D5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D14EFD-CE85-F54E-9E8E-4D055D2DBCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D929799F-C5F3-DC44-9888-49FBC12DBFB8}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{D929799F-C5F3-DC44-9888-49FBC12DBFB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -303,17 +303,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2096,6 +2096,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="443604528"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7041,10 +7042,10 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -7490,8 +7491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1769DC45-DE1A-324D-BE4E-8206A19F2382}">
   <dimension ref="C5:S127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7500,66 +7501,66 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="3:19" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
       <c r="S7" s="18" t="s">
         <v>11</v>
       </c>
@@ -7614,7 +7615,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7635,7 +7636,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="21"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="3:19" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="10"/>
@@ -7652,7 +7653,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="10"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="21"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="10"/>
@@ -7669,7 +7670,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7688,7 +7689,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="10"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="21"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
@@ -7705,7 +7706,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="10"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="21"/>
+      <c r="S16" s="20"/>
     </row>
     <row r="17" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
@@ -7724,7 +7725,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="10"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="21"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
@@ -7741,7 +7742,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="10"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="21" t="s">
+      <c r="S18" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7760,7 +7761,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="10"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="21"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
@@ -7777,7 +7778,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="10"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="21"/>
+      <c r="S20" s="20"/>
     </row>
     <row r="21" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
@@ -7794,7 +7795,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="10"/>
       <c r="R21" s="11"/>
-      <c r="S21" s="21"/>
+      <c r="S21" s="20"/>
     </row>
     <row r="22" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10"/>
@@ -7813,7 +7814,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="10"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="22"/>
+      <c r="S22" s="19"/>
     </row>
     <row r="23" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10"/>
@@ -7830,7 +7831,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="10"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="22"/>
+      <c r="S23" s="19"/>
     </row>
     <row r="24" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="10"/>
@@ -7847,7 +7848,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="10"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="22"/>
+      <c r="S24" s="19"/>
     </row>
     <row r="25" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="10"/>
@@ -7864,7 +7865,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="10"/>
       <c r="R25" s="11"/>
-      <c r="S25" s="22"/>
+      <c r="S25" s="19"/>
     </row>
     <row r="26" spans="3:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="10"/>
@@ -7881,56 +7882,56 @@
       <c r="H26" s="11"/>
       <c r="I26" s="10"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="22"/>
+      <c r="S26" s="19"/>
     </row>
     <row r="27" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="10"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="22"/>
+      <c r="S27" s="19"/>
     </row>
     <row r="28" spans="3:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="10"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="22"/>
+      <c r="S28" s="19"/>
     </row>
     <row r="29" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="10"/>
       <c r="H29" s="11"/>
       <c r="I29" s="10"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="22"/>
+      <c r="S29" s="19"/>
     </row>
     <row r="30" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="10"/>
       <c r="H30" s="11"/>
       <c r="I30" s="10"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="22"/>
+      <c r="S30" s="19"/>
     </row>
     <row r="31" spans="3:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="10"/>
       <c r="H31" s="11"/>
       <c r="I31" s="10"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="22"/>
+      <c r="S31" s="19"/>
     </row>
     <row r="32" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="10"/>
       <c r="H32" s="11"/>
       <c r="I32" s="10"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="22"/>
+      <c r="S32" s="19"/>
     </row>
     <row r="33" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="10"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="22"/>
+      <c r="S33" s="19"/>
     </row>
     <row r="34" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="10"/>
@@ -9457,12 +9458,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="S18:S21"/>
     <mergeCell ref="S11:S13"/>
     <mergeCell ref="C5:S6"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="S14:S17"/>
-    <mergeCell ref="S18:S21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
